--- a/data/trans_orig/P5703-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5703-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>401563</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>370554</v>
+        <v>370686</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>431692</v>
+        <v>432511</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.389216322311268</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3591606092919902</v>
+        <v>0.3592884949746598</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4184180926619694</v>
+        <v>0.4192123058901746</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>501</v>
@@ -765,19 +765,19 @@
         <v>503842</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>468738</v>
+        <v>467332</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>537491</v>
+        <v>536632</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3831170811966928</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.356424137894021</v>
+        <v>0.3553551859943781</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4087036348646349</v>
+        <v>0.4080498914008435</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>907</v>
@@ -786,19 +786,19 @@
         <v>905405</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>862874</v>
+        <v>856583</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>953275</v>
+        <v>949465</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3857984478453097</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3676756760886973</v>
+        <v>0.3649950839516313</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4061958172479571</v>
+        <v>0.4045726736334007</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>297067</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>269937</v>
+        <v>268785</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>326157</v>
+        <v>327584</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2879329857182223</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2616371334795166</v>
+        <v>0.2605202871376053</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3161287312776528</v>
+        <v>0.3175117645309847</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>328</v>
@@ -836,19 +836,19 @@
         <v>334760</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>304683</v>
+        <v>305724</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>365408</v>
+        <v>365446</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2545486916137534</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2316779723225545</v>
+        <v>0.2324697837058933</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2778529406297212</v>
+        <v>0.2778815952570323</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>626</v>
@@ -857,19 +857,19 @@
         <v>631827</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>593178</v>
+        <v>589548</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>676533</v>
+        <v>671715</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2692251949881532</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.252756379579853</v>
+        <v>0.2512098447025173</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2882746706605437</v>
+        <v>0.286221652769879</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>224358</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>199567</v>
+        <v>198143</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>252975</v>
+        <v>250636</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2174592587567399</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1934307452849084</v>
+        <v>0.1920501447737235</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2451969205750877</v>
+        <v>0.2429291393414629</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>289</v>
@@ -907,19 +907,19 @@
         <v>295013</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>265795</v>
+        <v>267776</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>324976</v>
+        <v>325141</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.224324847359702</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2021077280125102</v>
+        <v>0.2036145819909665</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2471091828879808</v>
+        <v>0.2472341825465428</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>520</v>
@@ -928,19 +928,19 @@
         <v>519370</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>483236</v>
+        <v>481955</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>560912</v>
+        <v>560072</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.221306576732703</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2059098692591683</v>
+        <v>0.2053638095506293</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2390077162000586</v>
+        <v>0.2386497720538877</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>98078</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>78519</v>
+        <v>78669</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>118738</v>
+        <v>118751</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09506209023476586</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07610466475635552</v>
+        <v>0.07625051527733771</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1150869139382055</v>
+        <v>0.1150994621576129</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>138</v>
@@ -978,19 +978,19 @@
         <v>144832</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>124047</v>
+        <v>124693</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>170369</v>
+        <v>167948</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1101288004312417</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09432436934669275</v>
+        <v>0.09481516190478927</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1295473389999776</v>
+        <v>0.1277064722556088</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>231</v>
@@ -999,19 +999,19 @@
         <v>242909</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>215178</v>
+        <v>211192</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>275379</v>
+        <v>270949</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1035051281634467</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09168849965809024</v>
+        <v>0.0899901058411213</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1173404218808236</v>
+        <v>0.1154529785879011</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>10657</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5288</v>
+        <v>5114</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19705</v>
+        <v>19456</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01032934297900386</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005125872261344822</v>
+        <v>0.004957058970988736</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01909875443993862</v>
+        <v>0.01885783255784727</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>35</v>
@@ -1049,19 +1049,19 @@
         <v>36666</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>24963</v>
+        <v>25149</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>48714</v>
+        <v>50478</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02788057939861012</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01898201333764921</v>
+        <v>0.01912344500621036</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0370420378801051</v>
+        <v>0.03838322092754965</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>45</v>
@@ -1070,19 +1070,19 @@
         <v>47323</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>33604</v>
+        <v>33732</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>61204</v>
+        <v>63108</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02016465227038735</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01431905591081039</v>
+        <v>0.01437335014641921</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02607948832664807</v>
+        <v>0.02689086293377101</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>842206</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>800866</v>
+        <v>801998</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>883659</v>
+        <v>880120</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4975885722953047</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4731640923315537</v>
+        <v>0.4738333512878091</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5220796048422457</v>
+        <v>0.519988596268648</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>740</v>
@@ -1195,19 +1195,19 @@
         <v>751049</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>712051</v>
+        <v>709571</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>792854</v>
+        <v>788213</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4730498951219703</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4484872053549325</v>
+        <v>0.4469250823877411</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4993810839303063</v>
+        <v>0.4964580384386541</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1547</v>
@@ -1216,19 +1216,19 @@
         <v>1593255</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1534010</v>
+        <v>1528009</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1647712</v>
+        <v>1651543</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4857116070431296</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4676504670696414</v>
+        <v>0.4658210849889833</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5023133128171591</v>
+        <v>0.5034810053777607</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>477833</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>441100</v>
+        <v>443156</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>513356</v>
+        <v>513258</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2823115650470141</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2606089508496604</v>
+        <v>0.2618236567788789</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3032989858852954</v>
+        <v>0.3032407390184695</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>412</v>
@@ -1266,19 +1266,19 @@
         <v>414172</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>376917</v>
+        <v>381863</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>445255</v>
+        <v>450850</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2608674537538595</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2374023518142924</v>
+        <v>0.2405174513148103</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2804449818041237</v>
+        <v>0.2839691879158845</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>886</v>
@@ -1287,19 +1287,19 @@
         <v>892006</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>843375</v>
+        <v>841300</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>950458</v>
+        <v>948359</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2719324006408195</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2571069348026595</v>
+        <v>0.2564745451206303</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2897519646243505</v>
+        <v>0.2891120747882966</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>273373</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>244868</v>
+        <v>243364</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>305092</v>
+        <v>303184</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1615129413474204</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1446716229642068</v>
+        <v>0.1437834658855645</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1802528783891503</v>
+        <v>0.1791257985024085</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>267</v>
@@ -1337,19 +1337,19 @@
         <v>279394</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>248744</v>
+        <v>249283</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>310416</v>
+        <v>312313</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1759768209637481</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1566722488951644</v>
+        <v>0.1570116299128326</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1955165403183037</v>
+        <v>0.1967113150967969</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>539</v>
@@ -1358,19 +1358,19 @@
         <v>552766</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>514531</v>
+        <v>511527</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>601075</v>
+        <v>597774</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1685136037874253</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1568573650474045</v>
+        <v>0.1559415759997015</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1832407019221943</v>
+        <v>0.1822345116818734</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>82653</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>66904</v>
+        <v>64870</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>101728</v>
+        <v>101187</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0488324884841374</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03952769181574476</v>
+        <v>0.03832596728933656</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06010279100644276</v>
+        <v>0.05978273672543354</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>113</v>
@@ -1408,19 +1408,19 @@
         <v>118694</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>97500</v>
+        <v>99021</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>140164</v>
+        <v>139989</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07475984085974756</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06141053951469119</v>
+        <v>0.06236873554129225</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08828242963099317</v>
+        <v>0.08817254162651414</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>194</v>
@@ -1429,19 +1429,19 @@
         <v>201347</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>174892</v>
+        <v>176218</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>230554</v>
+        <v>231828</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06138158642738966</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05331661370135345</v>
+        <v>0.05372084771045045</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07028538988914856</v>
+        <v>0.07067404492665477</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>16510</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9284</v>
+        <v>9199</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28134</v>
+        <v>26853</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.009754432826123297</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005484848702069532</v>
+        <v>0.00543469916262904</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01662217353999517</v>
+        <v>0.01586536579299454</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -1479,19 +1479,19 @@
         <v>24364</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15403</v>
+        <v>15799</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>37115</v>
+        <v>37074</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01534598930067457</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.009701439239390992</v>
+        <v>0.009951041575573907</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02337669689519395</v>
+        <v>0.02335120341775157</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>36</v>
@@ -1500,19 +1500,19 @@
         <v>40875</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>29089</v>
+        <v>29473</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>57552</v>
+        <v>57525</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01246080210123594</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008868025849604635</v>
+        <v>0.00898506340615841</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01754511207703206</v>
+        <v>0.01753669284281641</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>281157</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>258413</v>
+        <v>255086</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>305366</v>
+        <v>305734</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5115137687353419</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4701353786335329</v>
+        <v>0.4640822659228515</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5555565026935904</v>
+        <v>0.5562260011476249</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>253</v>
@@ -1625,19 +1625,19 @@
         <v>265089</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>243668</v>
+        <v>241127</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>286928</v>
+        <v>288981</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5564282388065285</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5114639063088972</v>
+        <v>0.5061305112662805</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6022683835532407</v>
+        <v>0.6065781768157871</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>521</v>
@@ -1646,19 +1646,19 @@
         <v>546246</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>512036</v>
+        <v>516504</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>577486</v>
+        <v>583144</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5323679098257611</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4990273627204078</v>
+        <v>0.503381715850457</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5628146943428629</v>
+        <v>0.5683287537785228</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>147889</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>127127</v>
+        <v>127565</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>169755</v>
+        <v>171833</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2690562558127565</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2312840970224856</v>
+        <v>0.2320802158029507</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3088383527793598</v>
+        <v>0.3126179245502466</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>123</v>
@@ -1696,19 +1696,19 @@
         <v>130008</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>110576</v>
+        <v>109593</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>149850</v>
+        <v>150622</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2728888843529584</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2321024778001254</v>
+        <v>0.2300375353315537</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.314538109355169</v>
+        <v>0.316158833235606</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>266</v>
@@ -1717,19 +1717,19 @@
         <v>277896</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>250759</v>
+        <v>248308</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>307281</v>
+        <v>305863</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2708357753350365</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2443886061327428</v>
+        <v>0.2419997629534701</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2994742539777728</v>
+        <v>0.2980924365273748</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>88519</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>70979</v>
+        <v>72627</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>107480</v>
+        <v>107581</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.161043540049243</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1291338868647849</v>
+        <v>0.132131379819026</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1955394234707824</v>
+        <v>0.1957232205739612</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>49</v>
@@ -1767,19 +1767,19 @@
         <v>52208</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>39559</v>
+        <v>38821</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>67342</v>
+        <v>66378</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1095855218795097</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08303519144504183</v>
+        <v>0.08148613644315326</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1413520503662702</v>
+        <v>0.1393279699925291</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>134</v>
@@ -1788,19 +1788,19 @@
         <v>140726</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>120701</v>
+        <v>119631</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>165084</v>
+        <v>165081</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1371511782013985</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1176340388131783</v>
+        <v>0.116592003018824</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1608894891328609</v>
+        <v>0.1608867855488532</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>23011</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13977</v>
+        <v>14678</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35588</v>
+        <v>34740</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04186386467801442</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02542886942567342</v>
+        <v>0.02670324183480621</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06474619584755362</v>
+        <v>0.06320361338310752</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>24</v>
@@ -1838,19 +1838,19 @@
         <v>26055</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17591</v>
+        <v>17222</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>37221</v>
+        <v>38633</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05469098537934896</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03692313762088827</v>
+        <v>0.03614911148299044</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07812871899683302</v>
+        <v>0.08109253209409459</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>46</v>
@@ -1859,19 +1859,19 @@
         <v>49066</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>36247</v>
+        <v>36610</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>66372</v>
+        <v>66389</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04781959752904214</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03532629702856434</v>
+        <v>0.03567981584684678</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06468615577381859</v>
+        <v>0.06470217665086413</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>9082</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4248</v>
+        <v>3962</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18037</v>
+        <v>16971</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01652257072464417</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.007728795003402222</v>
+        <v>0.007207801537773709</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03281501889504458</v>
+        <v>0.03087617438198933</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1909,19 +1909,19 @@
         <v>3052</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8357</v>
+        <v>8119</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.006406369581654546</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002116395638439648</v>
+        <v>0.002107306288024547</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01754199254317048</v>
+        <v>0.01704253204822997</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -1930,19 +1930,19 @@
         <v>12134</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6158</v>
+        <v>6548</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>21731</v>
+        <v>21263</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01182553910876181</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006001530876963132</v>
+        <v>0.006381561637194469</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02117937873543476</v>
+        <v>0.02072312462431281</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>1524927</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1471037</v>
+        <v>1464484</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1583673</v>
+        <v>1581054</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4657750484148282</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4493150752248661</v>
+        <v>0.4473135439534709</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4837187609945345</v>
+        <v>0.4829185477554556</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1494</v>
@@ -2055,19 +2055,19 @@
         <v>1519979</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1461489</v>
+        <v>1466294</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1576382</v>
+        <v>1579350</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4498049173295888</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4324958546236565</v>
+        <v>0.4339179766730648</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4664961442172776</v>
+        <v>0.4673742610269554</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2975</v>
@@ -2076,19 +2076,19 @@
         <v>3044906</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2961196</v>
+        <v>2959773</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3120312</v>
+        <v>3120855</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4576636718189417</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4450816417922772</v>
+        <v>0.4448677470924067</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4689975510535883</v>
+        <v>0.4690791578697183</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>922789</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>867297</v>
+        <v>874303</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>973174</v>
+        <v>975901</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2818576422505941</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2649079824005197</v>
+        <v>0.2670480980927979</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2972473489946937</v>
+        <v>0.2980801215500618</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>863</v>
@@ -2126,19 +2126,19 @@
         <v>878940</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>830566</v>
+        <v>829196</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>936009</v>
+        <v>929937</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2601031496007316</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2457879501613461</v>
+        <v>0.2453826968432866</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2769914283334458</v>
+        <v>0.2751945500583327</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1778</v>
@@ -2147,19 +2147,19 @@
         <v>1801729</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1728619</v>
+        <v>1726605</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1871666</v>
+        <v>1871836</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2708083351664103</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2598196219264338</v>
+        <v>0.2595168565641914</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2813201664646138</v>
+        <v>0.2813456828891006</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>586249</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>540338</v>
+        <v>544086</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>628418</v>
+        <v>631864</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1790645214185139</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1650413188010867</v>
+        <v>0.1661860773143364</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1919446974838973</v>
+        <v>0.1929972330044979</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>605</v>
@@ -2197,19 +2197,19 @@
         <v>626614</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>582224</v>
+        <v>586107</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>671281</v>
+        <v>679908</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1854327686481291</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1722965083959854</v>
+        <v>0.1734456115982318</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.198651046172359</v>
+        <v>0.2012039542745521</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1193</v>
@@ -2218,19 +2218,19 @@
         <v>1212863</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1146651</v>
+        <v>1158385</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1273964</v>
+        <v>1278506</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1822990128111902</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1723470815135109</v>
+        <v>0.1741106612822693</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1914828307086303</v>
+        <v>0.1921653967294089</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>203741</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>177278</v>
+        <v>177765</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>230851</v>
+        <v>232343</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06223089625243652</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05414804050808562</v>
+        <v>0.05429669954517612</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07051150668230205</v>
+        <v>0.07096696301980583</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>275</v>
@@ -2268,19 +2268,19 @@
         <v>289581</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>259899</v>
+        <v>257460</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>326922</v>
+        <v>326706</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08569531627337373</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07691149816431155</v>
+        <v>0.07618956178649558</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09674545686951418</v>
+        <v>0.09668168863365467</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>471</v>
@@ -2289,19 +2289,19 @@
         <v>493323</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>453813</v>
+        <v>451415</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>540859</v>
+        <v>534486</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07414869118962367</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06821028004803661</v>
+        <v>0.06784976656761982</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08129371469384726</v>
+        <v>0.08033579369070408</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>36249</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>25454</v>
+        <v>24063</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>49318</v>
+        <v>50579</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01107189166362729</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007774759917442245</v>
+        <v>0.007349956403170296</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01506381655315911</v>
+        <v>0.01544881012142765</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>60</v>
@@ -2339,19 +2339,19 @@
         <v>64083</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>48907</v>
+        <v>48815</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>83538</v>
+        <v>82104</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01896384814817679</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01447296652813778</v>
+        <v>0.0144456639900822</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02472133098237832</v>
+        <v>0.02429677523335943</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>92</v>
@@ -2360,19 +2360,19 @@
         <v>100331</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>79914</v>
+        <v>80930</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>121723</v>
+        <v>123849</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01508028901383414</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01201146336429252</v>
+        <v>0.01216421266029449</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01829556883725405</v>
+        <v>0.01861510781028999</v>
       </c>
     </row>
     <row r="27">
@@ -2703,19 +2703,19 @@
         <v>401345</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>370476</v>
+        <v>371416</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>431574</v>
+        <v>431098</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4139038628700727</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3820685109566299</v>
+        <v>0.3830385022851581</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4450784650112477</v>
+        <v>0.4445880808653286</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>480</v>
@@ -2724,19 +2724,19 @@
         <v>513479</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>476308</v>
+        <v>479243</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>550424</v>
+        <v>550427</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3861400110321908</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3581869508607504</v>
+        <v>0.3603943578369038</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4139226813407768</v>
+        <v>0.4139254655223338</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>861</v>
@@ -2745,19 +2745,19 @@
         <v>914824</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>870971</v>
+        <v>869404</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>963818</v>
+        <v>962383</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3978478760392036</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.37877637877428</v>
+        <v>0.3780949793079108</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4191547048249534</v>
+        <v>0.4185306280410079</v>
       </c>
     </row>
     <row r="5">
@@ -2774,19 +2774,19 @@
         <v>265437</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>238424</v>
+        <v>236975</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>299005</v>
+        <v>292970</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2737431038725376</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2458851361821951</v>
+        <v>0.2443906476146627</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3083614462891062</v>
+        <v>0.30213789173891</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>389</v>
@@ -2795,19 +2795,19 @@
         <v>417938</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>380930</v>
+        <v>381875</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>454458</v>
+        <v>451536</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3142924076668774</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2864622412556514</v>
+        <v>0.287172843964953</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3417558684668374</v>
+        <v>0.3395584779340589</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>632</v>
@@ -2816,19 +2816,19 @@
         <v>683375</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>639259</v>
+        <v>638207</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>726044</v>
+        <v>730012</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2971929872505531</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2780071414000692</v>
+        <v>0.2775496542515113</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.315749220886483</v>
+        <v>0.3174749920454124</v>
       </c>
     </row>
     <row r="6">
@@ -2845,19 +2845,19 @@
         <v>233901</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>205810</v>
+        <v>207184</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>264488</v>
+        <v>262066</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2412199344606029</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.21225053901864</v>
+        <v>0.2136666123554909</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2727638800294301</v>
+        <v>0.2702668686983438</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>251</v>
@@ -2866,19 +2866,19 @@
         <v>268652</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>239417</v>
+        <v>239752</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>298581</v>
+        <v>298412</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2020279653670354</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1800430782821171</v>
+        <v>0.1802950630342342</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2245353941833662</v>
+        <v>0.2244079149543096</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>466</v>
@@ -2887,19 +2887,19 @@
         <v>502552</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>463951</v>
+        <v>463906</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>547057</v>
+        <v>547040</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2185550051375196</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2017675251168644</v>
+        <v>0.2017480133719262</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2379097613237238</v>
+        <v>0.2379023749916168</v>
       </c>
     </row>
     <row r="7">
@@ -2916,19 +2916,19 @@
         <v>55997</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43101</v>
+        <v>40920</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74180</v>
+        <v>71826</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05774972350911065</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04445007306430176</v>
+        <v>0.04219997291794966</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07650158749419778</v>
+        <v>0.07407395577246788</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>83</v>
@@ -2937,19 +2937,19 @@
         <v>90674</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>72732</v>
+        <v>72170</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>112433</v>
+        <v>109500</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0681872407099031</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0546947892117321</v>
+        <v>0.05427210281708748</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08455037994294806</v>
+        <v>0.08234454332718981</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>135</v>
@@ -2958,19 +2958,19 @@
         <v>146671</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>124464</v>
+        <v>124398</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>171405</v>
+        <v>173133</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06378579659080875</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0541279405741243</v>
+        <v>0.05409933679509509</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07454214907583022</v>
+        <v>0.07529362435462116</v>
       </c>
     </row>
     <row r="8">
@@ -2987,19 +2987,19 @@
         <v>12977</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6851</v>
+        <v>7370</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23248</v>
+        <v>22586</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01338337528767612</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.007064910203796648</v>
+        <v>0.007601112051928511</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02397550790954962</v>
+        <v>0.0232930622892198</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>38</v>
@@ -3008,19 +3008,19 @@
         <v>39032</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>27939</v>
+        <v>28661</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>52500</v>
+        <v>52124</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02935237522399332</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02101012285923292</v>
+        <v>0.02155340679306163</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03948042648304392</v>
+        <v>0.03919791502490465</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>50</v>
@@ -3029,19 +3029,19 @@
         <v>52009</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>37814</v>
+        <v>39313</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>68812</v>
+        <v>67893</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02261833498191498</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01644480407896394</v>
+        <v>0.01709668635139819</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02992564998220439</v>
+        <v>0.02952618290895139</v>
       </c>
     </row>
     <row r="9">
@@ -3133,19 +3133,19 @@
         <v>957535</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>915002</v>
+        <v>914876</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1005291</v>
+        <v>1005531</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4885880421427684</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4668855138268413</v>
+        <v>0.4668209608216237</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5129561395926594</v>
+        <v>0.51307834884695</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>725</v>
@@ -3154,19 +3154,19 @@
         <v>769652</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>731163</v>
+        <v>726793</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>814534</v>
+        <v>811603</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4385551944356657</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.416623820943263</v>
+        <v>0.4141335633435523</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4641293434892966</v>
+        <v>0.4624592540101028</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1635</v>
@@ -3175,19 +3175,19 @@
         <v>1727187</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1663725</v>
+        <v>1664836</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1795749</v>
+        <v>1789016</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.46495099227419</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4478671628413467</v>
+        <v>0.4481662556950091</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4834075629024341</v>
+        <v>0.481595065972224</v>
       </c>
     </row>
     <row r="11">
@@ -3204,19 +3204,19 @@
         <v>581679</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>540699</v>
+        <v>538251</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>623349</v>
+        <v>622588</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2968054109715363</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2758950001461314</v>
+        <v>0.2746456688026909</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3180675136094446</v>
+        <v>0.3176794549901075</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>502</v>
@@ -3225,19 +3225,19 @@
         <v>536610</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>497536</v>
+        <v>497731</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>577114</v>
+        <v>575415</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3057654295544168</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2835006743238336</v>
+        <v>0.2836119854479014</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3288453893768779</v>
+        <v>0.3278767780688133</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1049</v>
@@ -3246,19 +3246,19 @@
         <v>1118289</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1060397</v>
+        <v>1056864</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1174272</v>
+        <v>1172947</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3010383982143725</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2854541762145031</v>
+        <v>0.2845030550689285</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3161085912070924</v>
+        <v>0.3157520163668102</v>
       </c>
     </row>
     <row r="12">
@@ -3275,19 +3275,19 @@
         <v>309932</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>277723</v>
+        <v>276829</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>344117</v>
+        <v>342186</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1581445786540401</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1417099753037989</v>
+        <v>0.1412537237966026</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1755879242028221</v>
+        <v>0.1746024644101811</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>294</v>
@@ -3296,19 +3296,19 @@
         <v>324539</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>293679</v>
+        <v>290874</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>360076</v>
+        <v>360184</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1849254492157951</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1673408721652879</v>
+        <v>0.1657426227987952</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2051747797134534</v>
+        <v>0.2052361875521849</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>586</v>
@@ -3317,19 +3317,19 @@
         <v>634471</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>590285</v>
+        <v>586535</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>681663</v>
+        <v>684547</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1707966822620121</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1589020879430504</v>
+        <v>0.1578925873472935</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1835005036532495</v>
+        <v>0.1842769439681897</v>
       </c>
     </row>
     <row r="13">
@@ -3346,19 +3346,19 @@
         <v>87707</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>70779</v>
+        <v>70478</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>108486</v>
+        <v>107391</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04475325337748313</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03611521124502578</v>
+        <v>0.03596190482748936</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05535554907143252</v>
+        <v>0.05479682992752067</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>70</v>
@@ -3367,19 +3367,19 @@
         <v>77294</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>60270</v>
+        <v>61070</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>96631</v>
+        <v>97074</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04404305764786293</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03434223356323257</v>
+        <v>0.03479814593016457</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05506104818455874</v>
+        <v>0.05531342560177206</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>152</v>
@@ -3388,19 +3388,19 @@
         <v>165002</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>140475</v>
+        <v>139312</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>194313</v>
+        <v>193514</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04441773516001615</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03781519829933687</v>
+        <v>0.03750215175649464</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05230822225495354</v>
+        <v>0.05209311753379032</v>
       </c>
     </row>
     <row r="14">
@@ -3417,19 +3417,19 @@
         <v>22947</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13873</v>
+        <v>14791</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>33498</v>
+        <v>35520</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01170871485417215</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.007079007316265951</v>
+        <v>0.007547074087557218</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01709277735395899</v>
+        <v>0.01812455030856213</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>42</v>
@@ -3438,19 +3438,19 @@
         <v>46877</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>33913</v>
+        <v>33779</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>62777</v>
+        <v>62521</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02671086914625948</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01932423041002657</v>
+        <v>0.01924754429072052</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03577099962375663</v>
+        <v>0.03562501892398358</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>63</v>
@@ -3459,19 +3459,19 @@
         <v>69824</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>54417</v>
+        <v>54142</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>88821</v>
+        <v>90036</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01879619208940926</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01464880499747614</v>
+        <v>0.01457470395503492</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02391031135490409</v>
+        <v>0.02423734781428658</v>
       </c>
     </row>
     <row r="15">
@@ -3563,19 +3563,19 @@
         <v>253295</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>230871</v>
+        <v>229869</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>278569</v>
+        <v>276221</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5300229777570098</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4831000228986739</v>
+        <v>0.4810022940808857</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5829091767240849</v>
+        <v>0.5779951491920691</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>219</v>
@@ -3584,19 +3584,19 @@
         <v>243857</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>219449</v>
+        <v>219739</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>265697</v>
+        <v>265831</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5329297518666422</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4795890613427808</v>
+        <v>0.4802228849784922</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5806605411484493</v>
+        <v>0.5809518992958904</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>450</v>
@@ -3605,19 +3605,19 @@
         <v>497153</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>465496</v>
+        <v>468139</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>531134</v>
+        <v>533916</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5314447999991311</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4976043625432949</v>
+        <v>0.500430205112502</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.56776955545013</v>
+        <v>0.5707442378034857</v>
       </c>
     </row>
     <row r="17">
@@ -3634,19 +3634,19 @@
         <v>130114</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>110386</v>
+        <v>111504</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>150803</v>
+        <v>152205</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2722642811435611</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2309845599471245</v>
+        <v>0.2333228683735329</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3155572847311881</v>
+        <v>0.3184911666311021</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>126</v>
@@ -3655,19 +3655,19 @@
         <v>143289</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>121475</v>
+        <v>122414</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>163380</v>
+        <v>163984</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3131470746465053</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2654745866165972</v>
+        <v>0.2675261803677044</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3570536524114731</v>
+        <v>0.3583728600066914</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>250</v>
@@ -3676,19 +3676,19 @@
         <v>273403</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>243997</v>
+        <v>242672</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>303752</v>
+        <v>300906</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2922617294935769</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.260826877781716</v>
+        <v>0.2594104234321556</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3247041824025301</v>
+        <v>0.3216612581318952</v>
       </c>
     </row>
     <row r="18">
@@ -3705,19 +3705,19 @@
         <v>68993</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>53244</v>
+        <v>53340</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>87816</v>
+        <v>88923</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1443692127247493</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1114142126751361</v>
+        <v>0.1116150249112984</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1837558343843757</v>
+        <v>0.1860717865581493</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>45</v>
@@ -3726,19 +3726,19 @@
         <v>48508</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>35887</v>
+        <v>35955</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>63877</v>
+        <v>62461</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1060103429520658</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07842793047891326</v>
+        <v>0.07857568216730119</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1395975325914463</v>
+        <v>0.136503866500035</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>103</v>
@@ -3747,19 +3747,19 @@
         <v>117501</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>96572</v>
+        <v>96189</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>139842</v>
+        <v>139301</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1256063188195425</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1032334419439242</v>
+        <v>0.1028242335778319</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1494874579542516</v>
+        <v>0.1489100083946753</v>
       </c>
     </row>
     <row r="19">
@@ -3776,19 +3776,19 @@
         <v>14362</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7666</v>
+        <v>7318</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25245</v>
+        <v>23946</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03005203201331884</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01604142451183099</v>
+        <v>0.01531351866627221</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05282548861932841</v>
+        <v>0.05010671860344193</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -3797,19 +3797,19 @@
         <v>18058</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11195</v>
+        <v>10943</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28865</v>
+        <v>27658</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03946476090463704</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02446618392852925</v>
+        <v>0.02391479956654301</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06308285364252954</v>
+        <v>0.06044487433535969</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>30</v>
@@ -3818,19 +3818,19 @@
         <v>32420</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>22186</v>
+        <v>21825</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>46021</v>
+        <v>44520</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03465618314167267</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02371650101251853</v>
+        <v>0.02332989252452574</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04919572387374758</v>
+        <v>0.04759034752130722</v>
       </c>
     </row>
     <row r="20">
@@ -3847,19 +3847,19 @@
         <v>11131</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5069</v>
+        <v>5227</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22479</v>
+        <v>21286</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02329149636136098</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01060659712460391</v>
+        <v>0.01093742660189355</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04703803913840263</v>
+        <v>0.04454196620451055</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -3868,19 +3868,19 @@
         <v>3866</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9548</v>
+        <v>8917</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.008448069630149668</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002147589953134755</v>
+        <v>0.002134907563156159</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02086675380754374</v>
+        <v>0.01948672152695961</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>13</v>
@@ -3889,19 +3889,19 @@
         <v>14997</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8239</v>
+        <v>8481</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>26994</v>
+        <v>26579</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0160309685460769</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008807263111161298</v>
+        <v>0.009066060178976066</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02885615624341003</v>
+        <v>0.02841224081160728</v>
       </c>
     </row>
     <row r="21">
@@ -3993,19 +3993,19 @@
         <v>1612176</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1550272</v>
+        <v>1550771</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1671540</v>
+        <v>1669967</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4731459816313936</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4549783069100129</v>
+        <v>0.4551246229718143</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4905684542312816</v>
+        <v>0.4901065659711735</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1424</v>
@@ -4014,19 +4014,19 @@
         <v>1526988</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1463750</v>
+        <v>1465366</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1583022</v>
+        <v>1584926</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.431069547247684</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4132171735574442</v>
+        <v>0.4136735066053147</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4468877468369079</v>
+        <v>0.4474253933990134</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2946</v>
@@ -4035,19 +4035,19 @@
         <v>3139164</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3048038</v>
+        <v>3047880</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3218437</v>
+        <v>3218982</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4516991756429898</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4385869437383864</v>
+        <v>0.4385640906731331</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4631059162069627</v>
+        <v>0.4631843128551891</v>
       </c>
     </row>
     <row r="23">
@@ -4064,19 +4064,19 @@
         <v>977230</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>922365</v>
+        <v>922423</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1032212</v>
+        <v>1030985</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2868003917368862</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2706983004469566</v>
+        <v>0.2707154659393273</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3029364944528112</v>
+        <v>0.3025764003070421</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1017</v>
@@ -4085,19 +4085,19 @@
         <v>1097837</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1043893</v>
+        <v>1045752</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1154007</v>
+        <v>1162535</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3099199428684987</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2946915816005214</v>
+        <v>0.2952163972248335</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3257767448165627</v>
+        <v>0.3281842708487118</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1931</v>
@@ -4106,19 +4106,19 @@
         <v>2075068</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1997209</v>
+        <v>1991285</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2150123</v>
+        <v>2148976</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2985846727702298</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2873814328158227</v>
+        <v>0.2865290874460839</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.309384466976834</v>
+        <v>0.3092194438075455</v>
       </c>
     </row>
     <row r="24">
@@ -4135,19 +4135,19 @@
         <v>612826</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>564430</v>
+        <v>568097</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>657903</v>
+        <v>662512</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1798539505012765</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1656504961446701</v>
+        <v>0.1667266408929491</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.19308322618604</v>
+        <v>0.1944358131801679</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>590</v>
@@ -4156,19 +4156,19 @@
         <v>641699</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>594171</v>
+        <v>590364</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>691975</v>
+        <v>687517</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1811518357599746</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1677347142977461</v>
+        <v>0.1666600852000686</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1953448826640702</v>
+        <v>0.1940862836450467</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1155</v>
@@ -4177,19 +4177,19 @@
         <v>1254525</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1193114</v>
+        <v>1187522</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1321885</v>
+        <v>1329175</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1805154964175646</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1716790074075027</v>
+        <v>0.1708744212483184</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1902080792312933</v>
+        <v>0.1912570860116348</v>
       </c>
     </row>
     <row r="25">
@@ -4206,19 +4206,19 @@
         <v>158067</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>133815</v>
+        <v>134758</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>182865</v>
+        <v>184751</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04638985765348042</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03927239231776836</v>
+        <v>0.03954904997642903</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05366765592863927</v>
+        <v>0.05422132371721146</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>170</v>
@@ -4227,19 +4227,19 @@
         <v>186026</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>158939</v>
+        <v>159027</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>214512</v>
+        <v>214515</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05251528433607552</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04486863128724047</v>
+        <v>0.04489325598915545</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06055688421621512</v>
+        <v>0.0605578041822384</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>317</v>
@@ -4248,19 +4248,19 @@
         <v>344093</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>308388</v>
+        <v>309176</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>383269</v>
+        <v>384689</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0495120527629755</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04437447544259875</v>
+        <v>0.04448779252621791</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05514918224988382</v>
+        <v>0.05535348149011775</v>
       </c>
     </row>
     <row r="26">
@@ -4277,19 +4277,19 @@
         <v>47055</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>33661</v>
+        <v>34400</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>64892</v>
+        <v>63097</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01380981847696337</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.009878978292719373</v>
+        <v>0.01009587506629001</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01904478580719297</v>
+        <v>0.01851776258189537</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>84</v>
@@ -4298,19 +4298,19 @@
         <v>89775</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>71700</v>
+        <v>72021</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>110534</v>
+        <v>108791</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02534338978776719</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02024092974556357</v>
+        <v>0.02033163765270697</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03120393206987931</v>
+        <v>0.03071174578590439</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>126</v>
@@ -4319,19 +4319,19 @@
         <v>136829</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>114967</v>
+        <v>115726</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>162034</v>
+        <v>163033</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01968860240624034</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01654280553055303</v>
+        <v>0.01665203160246206</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02331534219194882</v>
+        <v>0.02345907988716669</v>
       </c>
     </row>
     <row r="27">
@@ -4662,19 +4662,19 @@
         <v>286107</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>260378</v>
+        <v>262952</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>312580</v>
+        <v>313523</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3797127845168877</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3455660377862474</v>
+        <v>0.3489824548009471</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4148477258642118</v>
+        <v>0.4160986416056144</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>308</v>
@@ -4683,19 +4683,19 @@
         <v>339120</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>308426</v>
+        <v>307665</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>368767</v>
+        <v>369114</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3413766106062197</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3104789409879066</v>
+        <v>0.3097122616746324</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3712215654479535</v>
+        <v>0.371570226222784</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>597</v>
@@ -4704,19 +4704,19 @@
         <v>625227</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>585506</v>
+        <v>583659</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>666399</v>
+        <v>668933</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3579122432597862</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3351740221000592</v>
+        <v>0.3341170308590565</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.381481261204473</v>
+        <v>0.3829322275516165</v>
       </c>
     </row>
     <row r="5">
@@ -4733,19 +4733,19 @@
         <v>206075</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>184022</v>
+        <v>183013</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>231076</v>
+        <v>230378</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2734969882901275</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2442291722033307</v>
+        <v>0.2428896628971369</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3066769940161773</v>
+        <v>0.3057511593783942</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>239</v>
@@ -4754,19 +4754,19 @@
         <v>269815</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>238332</v>
+        <v>242370</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>298462</v>
+        <v>300206</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2716109491886081</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2399180048862896</v>
+        <v>0.2439830542081045</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3004484753998843</v>
+        <v>0.3022041319485532</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>444</v>
@@ -4775,19 +4775,19 @@
         <v>475890</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>439165</v>
+        <v>438212</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>517046</v>
+        <v>517243</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2724244588994535</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2514011657236052</v>
+        <v>0.2508554734324593</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2959841389260724</v>
+        <v>0.2960970574199306</v>
       </c>
     </row>
     <row r="6">
@@ -4804,19 +4804,19 @@
         <v>180489</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>158345</v>
+        <v>157968</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>204672</v>
+        <v>204691</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.23953962343529</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2101515755714894</v>
+        <v>0.2096507449339307</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.271635359788457</v>
+        <v>0.2716595502021813</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>220</v>
@@ -4825,19 +4825,19 @@
         <v>244769</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>217754</v>
+        <v>218007</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>275080</v>
+        <v>273985</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2463979048931798</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2192028863377935</v>
+        <v>0.2194581996984451</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2769103844813403</v>
+        <v>0.2758085268676113</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>406</v>
@@ -4846,19 +4846,19 @@
         <v>425258</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>389802</v>
+        <v>388717</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>460394</v>
+        <v>457483</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2434397061150051</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2231430500390086</v>
+        <v>0.2225217356239093</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2635535680773264</v>
+        <v>0.2618872830633189</v>
       </c>
     </row>
     <row r="7">
@@ -4875,19 +4875,19 @@
         <v>50610</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>38673</v>
+        <v>38664</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65393</v>
+        <v>66402</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06716788754692067</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0513260642155595</v>
+        <v>0.05131415062418825</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08678793090017073</v>
+        <v>0.08812697322852937</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>89</v>
@@ -4896,19 +4896,19 @@
         <v>98722</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>79175</v>
+        <v>79685</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>119024</v>
+        <v>120439</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09937942372388334</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07970143218522574</v>
+        <v>0.08021562199479451</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1198160206183478</v>
+        <v>0.121240697328628</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>140</v>
@@ -4917,19 +4917,19 @@
         <v>149332</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>128976</v>
+        <v>127552</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>176450</v>
+        <v>174512</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0854855455640417</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07383248685731317</v>
+        <v>0.07301754173171196</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1010089987364074</v>
+        <v>0.09989953188040518</v>
       </c>
     </row>
     <row r="8">
@@ -4946,19 +4946,19 @@
         <v>30202</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>20666</v>
+        <v>20630</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>41532</v>
+        <v>42259</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04008271621077402</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02742746969651908</v>
+        <v>0.02737986445709834</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05512044474448839</v>
+        <v>0.05608498940397309</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>35</v>
@@ -4967,19 +4967,19 @@
         <v>40963</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>29283</v>
+        <v>28639</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>56768</v>
+        <v>54213</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04123511158810921</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02947805363526074</v>
+        <v>0.02882959533270812</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05714611595095815</v>
+        <v>0.05457328514520685</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>65</v>
@@ -4988,19 +4988,19 @@
         <v>71164</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>55521</v>
+        <v>54591</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>90019</v>
+        <v>89829</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04073804616171359</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03178321306800164</v>
+        <v>0.03125085999294809</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05153148677805126</v>
+        <v>0.05142300619188653</v>
       </c>
     </row>
     <row r="9">
@@ -5092,19 +5092,19 @@
         <v>845487</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>800274</v>
+        <v>799976</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>893721</v>
+        <v>891150</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4089205155319173</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3870529485048495</v>
+        <v>0.3869087140628196</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4322487807180361</v>
+        <v>0.4310051405726962</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>780</v>
@@ -5113,19 +5113,19 @@
         <v>811880</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>768402</v>
+        <v>764816</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>857858</v>
+        <v>856953</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4092531228460323</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3873370579016911</v>
+        <v>0.3855294221717858</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4324302034793709</v>
+        <v>0.4319736594907406</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1584</v>
@@ -5134,19 +5134,19 @@
         <v>1657367</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1593650</v>
+        <v>1591078</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1725015</v>
+        <v>1726554</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4090833793278908</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3933564667045945</v>
+        <v>0.3927216229958115</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4257808816750751</v>
+        <v>0.4261608119696755</v>
       </c>
     </row>
     <row r="11">
@@ -5163,19 +5163,19 @@
         <v>587398</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>543275</v>
+        <v>549811</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>633076</v>
+        <v>632235</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2840956482174731</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2627552376025443</v>
+        <v>0.2659164686941183</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3061876989892319</v>
+        <v>0.3057809820462358</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>586</v>
@@ -5184,19 +5184,19 @@
         <v>610173</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>563932</v>
+        <v>567687</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>652369</v>
+        <v>656728</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3075764718519825</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2842673928642817</v>
+        <v>0.2861600259450219</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.328846916945043</v>
+        <v>0.3310441627148016</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1138</v>
@@ -5205,19 +5205,19 @@
         <v>1197571</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1143998</v>
+        <v>1135413</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1260798</v>
+        <v>1256014</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2955932187981916</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2823699631525428</v>
+        <v>0.280250919351799</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3111994191838395</v>
+        <v>0.3100184963088872</v>
       </c>
     </row>
     <row r="12">
@@ -5234,19 +5234,19 @@
         <v>464656</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>424943</v>
+        <v>422811</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>501467</v>
+        <v>505217</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2247311909307241</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2055237925875099</v>
+        <v>0.2044927202939723</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2425348065822521</v>
+        <v>0.2443484081218235</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>374</v>
@@ -5255,19 +5255,19 @@
         <v>393391</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>356429</v>
+        <v>358204</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>429469</v>
+        <v>430570</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1983009844009738</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1796690251966361</v>
+        <v>0.1805636086817328</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2164871544818722</v>
+        <v>0.2170423359943641</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>805</v>
@@ -5276,19 +5276,19 @@
         <v>858047</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>808851</v>
+        <v>805435</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>915723</v>
+        <v>912237</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2117894317416572</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1996465952985564</v>
+        <v>0.1988033639186779</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.226025583855346</v>
+        <v>0.2251651269862954</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>133494</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>111694</v>
+        <v>110186</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>157644</v>
+        <v>157945</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0645645610796891</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05402081382053327</v>
+        <v>0.05329154349893799</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07624486514210117</v>
+        <v>0.07639028538489238</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>136</v>
@@ -5326,19 +5326,19 @@
         <v>139783</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>118749</v>
+        <v>115815</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>162568</v>
+        <v>163426</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07046180856970119</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05985922096801671</v>
+        <v>0.05838018407920881</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08194737524261496</v>
+        <v>0.08237970526272492</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>260</v>
@@ -5347,19 +5347,19 @@
         <v>273277</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>245459</v>
+        <v>241803</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>308187</v>
+        <v>307593</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06745219484857991</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06058607248258099</v>
+        <v>0.05968358775395576</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07606887849855443</v>
+        <v>0.0759223718010192</v>
       </c>
     </row>
     <row r="14">
@@ -5376,19 +5376,19 @@
         <v>36572</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>25359</v>
+        <v>25630</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>51423</v>
+        <v>51493</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01768808424019642</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01226490754702012</v>
+        <v>0.01239607770432003</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0248706986141984</v>
+        <v>0.02490439089623785</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>28</v>
@@ -5397,19 +5397,19 @@
         <v>28582</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>19992</v>
+        <v>19436</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>39498</v>
+        <v>40556</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01440761233131023</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01007781646195852</v>
+        <v>0.009797298673025631</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01990996668821242</v>
+        <v>0.02044358033235029</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>61</v>
@@ -5418,19 +5418,19 @@
         <v>65154</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>49630</v>
+        <v>50531</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>82760</v>
+        <v>85079</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0160817752836805</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01224993373348853</v>
+        <v>0.01247254596942446</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02042741650964805</v>
+        <v>0.02099975810341675</v>
       </c>
     </row>
     <row r="15">
@@ -5522,19 +5522,19 @@
         <v>269736</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>248945</v>
+        <v>245007</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>298984</v>
+        <v>294468</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4940021770340979</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.455925009315411</v>
+        <v>0.4487127553130412</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.547569498264451</v>
+        <v>0.5392979662662585</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>269</v>
@@ -5543,19 +5543,19 @@
         <v>276793</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>253062</v>
+        <v>253168</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>301609</v>
+        <v>301615</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5061774118898741</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4627801054631341</v>
+        <v>0.4629740554622034</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5515595472686672</v>
+        <v>0.5515690582662437</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>518</v>
@@ -5564,19 +5564,19 @@
         <v>546529</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>512398</v>
+        <v>514386</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>578988</v>
+        <v>581188</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.500094301178257</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.468863564802698</v>
+        <v>0.4706827445917419</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.529795990575333</v>
+        <v>0.5318086583056317</v>
       </c>
     </row>
     <row r="17">
@@ -5593,19 +5593,19 @@
         <v>172200</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>149733</v>
+        <v>149994</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>194911</v>
+        <v>195941</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3153729331085848</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2742254006639038</v>
+        <v>0.2747036296982042</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3569655183245854</v>
+        <v>0.3588518002259966</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>138</v>
@@ -5614,19 +5614,19 @@
         <v>146212</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>124990</v>
+        <v>124911</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>169473</v>
+        <v>168461</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2673812814136544</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.228572163854675</v>
+        <v>0.2284267897790094</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3099186446409232</v>
+        <v>0.308067988163585</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>295</v>
@@ -5635,19 +5635,19 @@
         <v>318412</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>286538</v>
+        <v>288558</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>347856</v>
+        <v>350122</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2913593429419807</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.262192811412262</v>
+        <v>0.2640413286988709</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.318301214249337</v>
+        <v>0.320374493924433</v>
       </c>
     </row>
     <row r="18">
@@ -5664,19 +5664,19 @@
         <v>72964</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>57096</v>
+        <v>57336</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>91941</v>
+        <v>92166</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.133629334274175</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1045670823544675</v>
+        <v>0.105006792766248</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1683834998575575</v>
+        <v>0.1687965699948761</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>76</v>
@@ -5685,19 +5685,19 @@
         <v>79419</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>63513</v>
+        <v>65138</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>96317</v>
+        <v>97601</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.145234533461301</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1161471340366815</v>
+        <v>0.1191190719928109</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1761379026858541</v>
+        <v>0.1784858694374873</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>142</v>
@@ -5706,19 +5706,19 @@
         <v>152383</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>130812</v>
+        <v>130615</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>178880</v>
+        <v>177229</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1394362295828207</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1196981085352506</v>
+        <v>0.1195180927136475</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1636819156364413</v>
+        <v>0.1621714235552947</v>
       </c>
     </row>
     <row r="19">
@@ -5735,19 +5735,19 @@
         <v>23345</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15227</v>
+        <v>14494</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>36026</v>
+        <v>35476</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04275543610000684</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02788703035949529</v>
+        <v>0.0265450557164866</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06597839332867625</v>
+        <v>0.06497162460846366</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>29</v>
@@ -5756,19 +5756,19 @@
         <v>31239</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21791</v>
+        <v>22039</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>44535</v>
+        <v>44733</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05712789393208642</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03984944994198426</v>
+        <v>0.04030278331335809</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08144269438224525</v>
+        <v>0.08180424993906821</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>50</v>
@@ -5777,19 +5777,19 @@
         <v>54585</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>42127</v>
+        <v>41690</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>71494</v>
+        <v>72114</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0499469850439832</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03854816952491204</v>
+        <v>0.03814779757779522</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06541943095717592</v>
+        <v>0.06598670568639262</v>
       </c>
     </row>
     <row r="20">
@@ -5806,19 +5806,19 @@
         <v>7775</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3073</v>
+        <v>3009</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15691</v>
+        <v>16410</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01424011948313544</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005628221394377664</v>
+        <v>0.005510565119371526</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02873778886205624</v>
+        <v>0.0300532715533529</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -5827,19 +5827,19 @@
         <v>13167</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7092</v>
+        <v>6775</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21976</v>
+        <v>22358</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02407887930308414</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01296862483681771</v>
+        <v>0.01238885162656636</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04018733205289495</v>
+        <v>0.04088597806192445</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>19</v>
@@ -5848,19 +5848,19 @@
         <v>20942</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>12565</v>
+        <v>12293</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>31081</v>
+        <v>31689</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01916314125295832</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01149784489629698</v>
+        <v>0.01124868053457602</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02843995677494125</v>
+        <v>0.02899646487102151</v>
       </c>
     </row>
     <row r="21">
@@ -5952,19 +5952,19 @@
         <v>1401330</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1344916</v>
+        <v>1345538</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1464452</v>
+        <v>1463530</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4161816007671865</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3994271960039638</v>
+        <v>0.399612074584373</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4349284796073052</v>
+        <v>0.4346544000807847</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1357</v>
@@ -5973,19 +5973,19 @@
         <v>1427792</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1370775</v>
+        <v>1370732</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1487389</v>
+        <v>1487295</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4051593220062951</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3889796628848515</v>
+        <v>0.3889674515275935</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4220708338521566</v>
+        <v>0.4220442857364141</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2699</v>
@@ -5994,19 +5994,19 @@
         <v>2829122</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2745411</v>
+        <v>2745508</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2910315</v>
+        <v>2911084</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4105449691488</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3983973170378377</v>
+        <v>0.3984113825708211</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4223271384264545</v>
+        <v>0.4224387574385158</v>
       </c>
     </row>
     <row r="23">
@@ -6023,19 +6023,19 @@
         <v>965674</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>916641</v>
+        <v>908717</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1023959</v>
+        <v>1018589</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2867959325208336</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2722336480476572</v>
+        <v>0.2698801993572184</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3041061823274318</v>
+        <v>0.302511300862735</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>963</v>
@@ -6044,19 +6044,19 @@
         <v>1026200</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>969848</v>
+        <v>980090</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1084376</v>
+        <v>1080525</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2912009720235836</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2752101894291556</v>
+        <v>0.2781164673398341</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.307709446538753</v>
+        <v>0.3066165639363976</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1877</v>
@@ -6065,19 +6065,19 @@
         <v>1991874</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1913541</v>
+        <v>1916445</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2067390</v>
+        <v>2072707</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.289048605083384</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2776814775561626</v>
+        <v>0.2781028394133876</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.300006992416946</v>
+        <v>0.3007786545940732</v>
       </c>
     </row>
     <row r="24">
@@ -6094,19 +6094,19 @@
         <v>718109</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>672638</v>
+        <v>670859</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>765002</v>
+        <v>765654</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2132716202154271</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.199767122976059</v>
+        <v>0.1992388679728138</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2271982181395509</v>
+        <v>0.2273920572943127</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>670</v>
@@ -6115,19 +6115,19 @@
         <v>717579</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>672185</v>
+        <v>668861</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>764567</v>
+        <v>762162</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2036246162282325</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1907435645408737</v>
+        <v>0.1898002317805</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2169583930365014</v>
+        <v>0.2162758536595792</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1353</v>
@@ -6136,19 +6136,19 @@
         <v>1435688</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1369029</v>
+        <v>1369346</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1511185</v>
+        <v>1500747</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2083382839356501</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1986651384902809</v>
+        <v>0.1987111534659159</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2192939685348496</v>
+        <v>0.2177792999774205</v>
       </c>
     </row>
     <row r="25">
@@ -6165,19 +6165,19 @@
         <v>207449</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>180042</v>
+        <v>181287</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>238096</v>
+        <v>237701</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06161049085441624</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05347065885025672</v>
+        <v>0.05384049070597404</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07071210800017652</v>
+        <v>0.07059486501973232</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>254</v>
@@ -6186,19 +6186,19 @@
         <v>269744</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>239954</v>
+        <v>240960</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>305431</v>
+        <v>302717</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07654435515042057</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06809086096664591</v>
+        <v>0.06837629024808824</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08667102278312189</v>
+        <v>0.08590095566340514</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>450</v>
@@ -6207,19 +6207,19 @@
         <v>477194</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>434195</v>
+        <v>435440</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>528294</v>
+        <v>515848</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06924744991720298</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06300768200091522</v>
+        <v>0.0631884218397343</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07666276657487048</v>
+        <v>0.07485666002884757</v>
       </c>
     </row>
     <row r="26">
@@ -6236,19 +6236,19 @@
         <v>74549</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>57692</v>
+        <v>59158</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>93030</v>
+        <v>92260</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02214035564213657</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01713390502815924</v>
+        <v>0.01756925166406745</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02762893157313756</v>
+        <v>0.02740030842448197</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>75</v>
@@ -6257,19 +6257,19 @@
         <v>82712</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>65547</v>
+        <v>65782</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>102356</v>
+        <v>103185</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02347073459146818</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01860015997791172</v>
+        <v>0.01866683944927811</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02904516886761499</v>
+        <v>0.02928028976985659</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>145</v>
@@ -6278,19 +6278,19 @@
         <v>157261</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>134257</v>
+        <v>132897</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>184748</v>
+        <v>184114</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02282069191496297</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01948257211971039</v>
+        <v>0.01928525024409216</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02680943953716109</v>
+        <v>0.02671744262494683</v>
       </c>
     </row>
     <row r="27">
@@ -6621,19 +6621,19 @@
         <v>239021</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>217479</v>
+        <v>216217</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>261758</v>
+        <v>262880</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4160424906848917</v>
+        <v>0.4160424906848918</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.378547106020294</v>
+        <v>0.3763494561440127</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4556193391362629</v>
+        <v>0.457572058531925</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>544</v>
@@ -6642,19 +6642,19 @@
         <v>314444</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>294712</v>
+        <v>293741</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>336718</v>
+        <v>337672</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3870152168118164</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3627283028310356</v>
+        <v>0.361533275016052</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4144291688556084</v>
+        <v>0.4156038152868498</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>825</v>
@@ -6663,19 +6663,19 @@
         <v>553465</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>520644</v>
+        <v>522838</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>587717</v>
+        <v>586379</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3990386690632647</v>
+        <v>0.3990386690632648</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3753751622306806</v>
+        <v>0.3769571941677132</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4237334418432465</v>
+        <v>0.4227688022785849</v>
       </c>
     </row>
     <row r="5">
@@ -6692,19 +6692,19 @@
         <v>162928</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>142626</v>
+        <v>143979</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>182929</v>
+        <v>185759</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2835947592718182</v>
+        <v>0.2835947592718181</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2482561735229523</v>
+        <v>0.2506115338567025</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3184074687253097</v>
+        <v>0.3233333651739588</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>405</v>
@@ -6713,19 +6713,19 @@
         <v>235829</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>217586</v>
+        <v>216560</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>257178</v>
+        <v>254989</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2902558825530152</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2678022452555845</v>
+        <v>0.2665405376384849</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3165316554772961</v>
+        <v>0.3138385123159829</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>601</v>
@@ -6734,19 +6734,19 @@
         <v>398757</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>369397</v>
+        <v>370339</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>427473</v>
+        <v>427150</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2874967637303974</v>
+        <v>0.2874967637303975</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2663284623933124</v>
+        <v>0.2670078401189506</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3082003832566782</v>
+        <v>0.3079675101547599</v>
       </c>
     </row>
     <row r="6">
@@ -6763,19 +6763,19 @@
         <v>112815</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>95233</v>
+        <v>94481</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>132423</v>
+        <v>132261</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1963674946547848</v>
+        <v>0.1963674946547849</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1657641887181554</v>
+        <v>0.1644546209734598</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2304974073797309</v>
+        <v>0.230215221334582</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>286</v>
@@ -6784,19 +6784,19 @@
         <v>156625</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>139561</v>
+        <v>140608</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>174761</v>
+        <v>172758</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.1927721119522494</v>
+        <v>0.1927721119522493</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1717706248514572</v>
+        <v>0.1730592210102243</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2150938714134268</v>
+        <v>0.2126292118057257</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>421</v>
@@ -6805,19 +6805,19 @@
         <v>269440</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>244879</v>
+        <v>243812</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>296182</v>
+        <v>294947</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1942613634899115</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1765531329430809</v>
+        <v>0.175783817852775</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2135420830014728</v>
+        <v>0.2126514444357575</v>
       </c>
     </row>
     <row r="7">
@@ -6834,19 +6834,19 @@
         <v>38609</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>29312</v>
+        <v>28468</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53011</v>
+        <v>51922</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06720322779307497</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05102074883967762</v>
+        <v>0.04955182172543127</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09227086975763117</v>
+        <v>0.09037587462097883</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>128</v>
@@ -6855,19 +6855,19 @@
         <v>77564</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>65202</v>
+        <v>64951</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>90872</v>
+        <v>92103</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09546464512523425</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08025016768165205</v>
+        <v>0.07994064303123685</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1118440273879247</v>
+        <v>0.113360023879376</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>173</v>
@@ -6876,19 +6876,19 @@
         <v>116173</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>100014</v>
+        <v>99690</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>135229</v>
+        <v>135973</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08375842003026743</v>
+        <v>0.08375842003026744</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07210814526652354</v>
+        <v>0.07187447942167205</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0974976546518225</v>
+        <v>0.09803379460195655</v>
       </c>
     </row>
     <row r="8">
@@ -6905,19 +6905,19 @@
         <v>21137</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13370</v>
+        <v>14207</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>29800</v>
+        <v>29447</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03679202759543018</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02327207302410276</v>
+        <v>0.02472937747612144</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05186994465220052</v>
+        <v>0.05125533626634368</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>48</v>
@@ -6926,19 +6926,19 @@
         <v>28024</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20386</v>
+        <v>21143</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>37343</v>
+        <v>37277</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03449214355768473</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0250905870863441</v>
+        <v>0.02602239377380056</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04596154702425014</v>
+        <v>0.04587998840897869</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>77</v>
@@ -6947,19 +6947,19 @@
         <v>49162</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>38649</v>
+        <v>38186</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>61022</v>
+        <v>61145</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03544478368615887</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02786548268220558</v>
+        <v>0.02753163927618713</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04399565621073194</v>
+        <v>0.04408455930246256</v>
       </c>
     </row>
     <row r="9">
@@ -7051,19 +7051,19 @@
         <v>1140125</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1086654</v>
+        <v>1089271</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1199125</v>
+        <v>1195056</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5121836482866494</v>
+        <v>0.5121836482866493</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4881623055459594</v>
+        <v>0.489338281952616</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5386881216858472</v>
+        <v>0.5368604199430199</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1347</v>
@@ -7072,19 +7072,19 @@
         <v>1060839</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1015295</v>
+        <v>1019844</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1100992</v>
+        <v>1107193</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4899227060929811</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4688891925195623</v>
+        <v>0.4709900148713111</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5084666041423556</v>
+        <v>0.5113302518568297</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2284</v>
@@ -7093,19 +7093,19 @@
         <v>2200964</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2134360</v>
+        <v>2131644</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2277958</v>
+        <v>2272766</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5012070048388005</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4860398618454094</v>
+        <v>0.485421442153143</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5187403240176781</v>
+        <v>0.5175579720291946</v>
       </c>
     </row>
     <row r="11">
@@ -7122,19 +7122,19 @@
         <v>712993</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>662078</v>
+        <v>664727</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>763276</v>
+        <v>761931</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3203012244175434</v>
+        <v>0.3203012244175433</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2974282924403753</v>
+        <v>0.2986182946828618</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3428898602136095</v>
+        <v>0.3422857974679895</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1030</v>
@@ -7143,19 +7143,19 @@
         <v>712612</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>679013</v>
+        <v>672112</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>757964</v>
+        <v>750566</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3291024642724034</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3135855529036334</v>
+        <v>0.3103984277977334</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3500474372181455</v>
+        <v>0.3466309076724042</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1719</v>
@@ -7164,19 +7164,19 @@
         <v>1425605</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1356832</v>
+        <v>1364376</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1485142</v>
+        <v>1489144</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3246410259832324</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3089799776926717</v>
+        <v>0.3106979356683224</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3381989785765724</v>
+        <v>0.3391101487009317</v>
       </c>
     </row>
     <row r="12">
@@ -7193,19 +7193,19 @@
         <v>239244</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>210380</v>
+        <v>209512</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>270904</v>
+        <v>269910</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1074765721900662</v>
+        <v>0.1074765721900661</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09451012615566125</v>
+        <v>0.09412018780075275</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1216993683486496</v>
+        <v>0.1212528867791308</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>334</v>
@@ -7214,19 +7214,19 @@
         <v>240342</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>217688</v>
+        <v>215859</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>267887</v>
+        <v>267947</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.110996195495724</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1005340159003999</v>
+        <v>0.09968924550806123</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.123717221958025</v>
+        <v>0.1237447632144434</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>564</v>
@@ -7235,19 +7235,19 @@
         <v>479586</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>440626</v>
+        <v>436250</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>522387</v>
+        <v>518811</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1092120625282933</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1003400543955018</v>
+        <v>0.09934345233625451</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1189589027275089</v>
+        <v>0.1181445515203203</v>
       </c>
     </row>
     <row r="13">
@@ -7264,19 +7264,19 @@
         <v>93351</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>75158</v>
+        <v>76950</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>116138</v>
+        <v>116453</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04193651076047187</v>
+        <v>0.04193651076047186</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03376373601418475</v>
+        <v>0.03456860829711648</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05217317563485748</v>
+        <v>0.05231476239390542</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>141</v>
@@ -7285,19 +7285,19 @@
         <v>106308</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>91501</v>
+        <v>88867</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>129077</v>
+        <v>127955</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0490958401791718</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04225751710726178</v>
+        <v>0.04104128983822309</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05961110987348246</v>
+        <v>0.05909277546832215</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>232</v>
@@ -7306,19 +7306,19 @@
         <v>199659</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>173461</v>
+        <v>174933</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>231051</v>
+        <v>229101</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04546670304393755</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03950080009832132</v>
+        <v>0.03983592316471436</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05261520285463508</v>
+        <v>0.05217134241594647</v>
       </c>
     </row>
     <row r="14">
@@ -7335,19 +7335,19 @@
         <v>40295</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>29354</v>
+        <v>28659</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>56602</v>
+        <v>55062</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.01810204434526918</v>
+        <v>0.01810204434526917</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01318662636021622</v>
+        <v>0.01287466574408591</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02542744233683914</v>
+        <v>0.02473578431559925</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>60</v>
@@ -7356,19 +7356,19 @@
         <v>45218</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>34591</v>
+        <v>34484</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>58960</v>
+        <v>60214</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02088279395971977</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01597514116255182</v>
+        <v>0.01592578972681097</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02722908286071221</v>
+        <v>0.02780845513647094</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>101</v>
@@ -7377,19 +7377,19 @@
         <v>85513</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>68455</v>
+        <v>69905</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>107062</v>
+        <v>106464</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01947320360573609</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01558869966987948</v>
+        <v>0.01591896213955831</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02438039037353448</v>
+        <v>0.02424406348780836</v>
       </c>
     </row>
     <row r="15">
@@ -7481,19 +7481,19 @@
         <v>407381</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>377909</v>
+        <v>381161</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>431492</v>
+        <v>435705</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5747625778045401</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5331809311245009</v>
+        <v>0.5377692725130918</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6087796041223823</v>
+        <v>0.6147236632340165</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>571</v>
@@ -7502,19 +7502,19 @@
         <v>432267</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>406744</v>
+        <v>409193</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>454287</v>
+        <v>458576</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5903654883228582</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5555069729001763</v>
+        <v>0.5588519211958451</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6204388317395544</v>
+        <v>0.626296392954817</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>943</v>
@@ -7523,19 +7523,19 @@
         <v>839648</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>801824</v>
+        <v>804439</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>875885</v>
+        <v>877428</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5826908358631679</v>
+        <v>0.5826908358631678</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5564421106790803</v>
+        <v>0.5582567695722204</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6078383743643756</v>
+        <v>0.6089086581130516</v>
       </c>
     </row>
     <row r="17">
@@ -7552,19 +7552,19 @@
         <v>203046</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>179531</v>
+        <v>176325</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>230071</v>
+        <v>226007</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2864719856254576</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2532952944076975</v>
+        <v>0.2487716645047504</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3246002507112525</v>
+        <v>0.3188673548214953</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>291</v>
@@ -7573,19 +7573,19 @@
         <v>198427</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>178323</v>
+        <v>177869</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>220273</v>
+        <v>222545</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2710005391263617</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2435433136223918</v>
+        <v>0.2429226441245626</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3008361502577835</v>
+        <v>0.3039382591866177</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>504</v>
@@ -7594,19 +7594,19 @@
         <v>401473</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>371005</v>
+        <v>369990</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>436805</v>
+        <v>434337</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2786105279672164</v>
+        <v>0.2786105279672163</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2574667284264724</v>
+        <v>0.2567623203854662</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3031298243468454</v>
+        <v>0.3014172763832595</v>
       </c>
     </row>
     <row r="18">
@@ -7623,19 +7623,19 @@
         <v>61055</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>47013</v>
+        <v>45267</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>79606</v>
+        <v>77391</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.08614043698838345</v>
+        <v>0.08614043698838343</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06632982384587299</v>
+        <v>0.0638664537304327</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1123138313607872</v>
+        <v>0.1091885586938305</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>83</v>
@@ -7644,19 +7644,19 @@
         <v>62781</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>49209</v>
+        <v>48949</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>77895</v>
+        <v>77156</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.08574304768477947</v>
+        <v>0.08574304768477949</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06720705204552668</v>
+        <v>0.06685142646361808</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1063839543233674</v>
+        <v>0.1053756342059418</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>143</v>
@@ -7665,19 +7665,19 @@
         <v>123836</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>103822</v>
+        <v>102894</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>145672</v>
+        <v>146606</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.08593851280603224</v>
+        <v>0.08593851280603222</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07204922177221799</v>
+        <v>0.07140563331172227</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1010918047896277</v>
+        <v>0.1017399023429619</v>
       </c>
     </row>
     <row r="19">
@@ -7694,19 +7694,19 @@
         <v>20002</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12019</v>
+        <v>12421</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33075</v>
+        <v>32217</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02822069198700142</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01695673064552674</v>
+        <v>0.01752385667219872</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04666421673710058</v>
+        <v>0.04545454455972134</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>42</v>
@@ -7715,19 +7715,19 @@
         <v>29547</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21605</v>
+        <v>21880</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>39427</v>
+        <v>39413</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.04035405748339447</v>
+        <v>0.04035405748339448</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02950752389505363</v>
+        <v>0.02988261230107488</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05384707927780543</v>
+        <v>0.05382820375651744</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>61</v>
@@ -7736,19 +7736,19 @@
         <v>49550</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>37459</v>
+        <v>37981</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>65190</v>
+        <v>63681</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.03438598099908144</v>
+        <v>0.03438598099908143</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0259953514238225</v>
+        <v>0.02635738978531649</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04523988464399736</v>
+        <v>0.04419274566094187</v>
       </c>
     </row>
     <row r="20">
@@ -7765,19 +7765,19 @@
         <v>17297</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9856</v>
+        <v>10303</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>28373</v>
+        <v>28372</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.02440430759461755</v>
+        <v>0.02440430759461756</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01390489690741686</v>
+        <v>0.0145361831512038</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04003079286462927</v>
+        <v>0.04002962558537908</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -7786,19 +7786,19 @@
         <v>9180</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5070</v>
+        <v>5433</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15017</v>
+        <v>15539</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01253686738260602</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.006923960066840043</v>
+        <v>0.007420753530871775</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02050981962126331</v>
+        <v>0.0212228849453312</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>29</v>
@@ -7807,19 +7807,19 @@
         <v>26477</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>17916</v>
+        <v>18464</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>37917</v>
+        <v>38898</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.01837414236450217</v>
+        <v>0.01837414236450216</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01243329991106185</v>
+        <v>0.01281324600701145</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0263132964280876</v>
+        <v>0.02699375043353889</v>
       </c>
     </row>
     <row r="21">
@@ -7911,19 +7911,19 @@
         <v>1786527</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1722605</v>
+        <v>1718581</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1850638</v>
+        <v>1850539</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5090834909077675</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4908684933919766</v>
+        <v>0.4897217167944918</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5273524545605945</v>
+        <v>0.5273241350311095</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2462</v>
@@ -7932,19 +7932,19 @@
         <v>1807551</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1755635</v>
+        <v>1749369</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1863533</v>
+        <v>1862728</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4872093969271465</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4732160749670611</v>
+        <v>0.4715271414174983</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5022990059515875</v>
+        <v>0.5020820490635026</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4052</v>
@@ -7953,19 +7953,19 @@
         <v>3594078</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3514105</v>
+        <v>3513093</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3687075</v>
+        <v>3686346</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.497842379750228</v>
+        <v>0.4978423797502282</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4867647893774594</v>
+        <v>0.486624508720065</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5107240248456847</v>
+        <v>0.5106231406942172</v>
       </c>
     </row>
     <row r="23">
@@ -7982,19 +7982,19 @@
         <v>1078968</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1025103</v>
+        <v>1025963</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1140936</v>
+        <v>1139309</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.307459404846846</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2921103188403354</v>
+        <v>0.29235525718063</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3251177191983463</v>
+        <v>0.3246539762590443</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1726</v>
@@ -8003,19 +8003,19 @@
         <v>1146868</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1096270</v>
+        <v>1101360</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1199307</v>
+        <v>1197241</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.3091281923054809</v>
+        <v>0.309128192305481</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.295490063139824</v>
+        <v>0.2968619972650457</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3232625366469503</v>
+        <v>0.3227056892668008</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2824</v>
@@ -8024,19 +8024,19 @@
         <v>2225836</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2147007</v>
+        <v>2150992</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2299346</v>
+        <v>2301496</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3083169958098108</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2973978540031835</v>
+        <v>0.2979499044277321</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3184994627981613</v>
+        <v>0.3187972521179479</v>
       </c>
     </row>
     <row r="24">
@@ -8053,19 +8053,19 @@
         <v>413114</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>373723</v>
+        <v>372212</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>454586</v>
+        <v>452088</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.117719686427356</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1064949397395359</v>
+        <v>0.1060642977499246</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1295375238602136</v>
+        <v>0.1288255542419748</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>703</v>
@@ -8074,19 +8074,19 @@
         <v>459748</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>424904</v>
+        <v>428581</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>493003</v>
+        <v>496121</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1239210634722906</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1145290752055785</v>
+        <v>0.1155203678217682</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1328845538018336</v>
+        <v>0.1337250179233303</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1128</v>
@@ -8095,19 +8095,19 @@
         <v>872862</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>822505</v>
+        <v>819868</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>932381</v>
+        <v>927623</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.120906578133759</v>
+        <v>0.1209065781337591</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1139312794678024</v>
+        <v>0.1135659836751479</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1291510493512769</v>
+        <v>0.1284919103238831</v>
       </c>
     </row>
     <row r="25">
@@ -8124,19 +8124,19 @@
         <v>151962</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>127555</v>
+        <v>127817</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>177729</v>
+        <v>178548</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04330273537692335</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03634769671513192</v>
+        <v>0.03642242189184421</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05064513409162239</v>
+        <v>0.05087856969475554</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>311</v>
@@ -8145,19 +8145,19 @@
         <v>213419</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>190044</v>
+        <v>190005</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>239793</v>
+        <v>241202</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.05752526919662135</v>
+        <v>0.05752526919662136</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05122459876470929</v>
+        <v>0.05121416522285942</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06463404292026174</v>
+        <v>0.06501376721089454</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>466</v>
@@ -8166,19 +8166,19 @@
         <v>365382</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>333190</v>
+        <v>328796</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>404174</v>
+        <v>399997</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.05061170477930084</v>
+        <v>0.05061170477930085</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0461526428074203</v>
+        <v>0.04554397197086535</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05598519581314939</v>
+        <v>0.05540651031973429</v>
       </c>
     </row>
     <row r="26">
@@ -8195,19 +8195,19 @@
         <v>78730</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>63926</v>
+        <v>62583</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>100332</v>
+        <v>99844</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02243468244110724</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.018216229435775</v>
+        <v>0.01783353341592946</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0285903291912519</v>
+        <v>0.02845133784673614</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>122</v>
@@ -8216,19 +8216,19 @@
         <v>82422</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>68791</v>
+        <v>68439</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>99385</v>
+        <v>100054</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02221607809846058</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01854201903873342</v>
+        <v>0.0184470158545882</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0267883429964766</v>
+        <v>0.02696879554225641</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>207</v>
@@ -8237,19 +8237,19 @@
         <v>161152</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>140080</v>
+        <v>139702</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>185952</v>
+        <v>188377</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.0223223415269012</v>
+        <v>0.02232234152690119</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0194035499632833</v>
+        <v>0.0193512256165542</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0257575921908784</v>
+        <v>0.0260934839200639</v>
       </c>
     </row>
     <row r="27">
